--- a/ExcelTool/bin/table/demo.xlsx
+++ b/ExcelTool/bin/table/demo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E31BF8F-A8E3-4FAF-9BD9-9EEE58F6F948}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E4C7B1-519D-436A-AD9B-BFC541D08010}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1608" windowWidth="30408" windowHeight="12708" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="747" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BodySetting" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,11 @@
 10XXX为蓝色机身
 11XXX为蓝色机枪
 12XXX为蓝色导弹
+13XXX为蓝色拖尾
 20XXX为红色机身
 21XXX为红色机枪
 22XXX为红色导弹
+23XXX为红色拖尾
 注意每小类装备之间留足空位</t>
         </r>
       </text>
@@ -595,7 +597,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="366">
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -957,9 +959,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PreparePage</t>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -995,14 +994,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>拖尾1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖尾2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>lv:{0}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1027,10 +1018,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PreparePage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PreparePage|防御</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1085,9 +1072,6 @@
   <si>
     <t>子弹名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulletSmallBrown</t>
   </si>
   <si>
     <t>bulletMissile1</t>
@@ -1184,22 +1168,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0|-0.18|0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.15|-0.5|0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.17|-0.5|0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.22|-0.31|0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>-0.31|-0.4|0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1216,31 +1184,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>-0.21|-0.37|0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1+2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>-0.31|0|0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.31|0|0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>-0.43|-0.23|0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>-0.37|-0.29|0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.59|0.03|0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1290,14 +1242,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Radius</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>细菌半径</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>细菌id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1460,14 +1404,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>bulletMissile1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulletMissile1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>bulletBianZhi</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1579,22 +1515,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>BianZhiParams</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>0|0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>鞭子子弹参数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>对于HitType为2的子弹有效，每隔设定的时间计算一次伤害</t>
   </si>
   <si>
@@ -1602,11 +1526,525 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[0]为一个鞭子最多串联的细菌数，该值要大于等于1；    [1]为鞭子搜索细菌限定夹角$该夹角为发射点的up方向和细菌之间的角度，范围(0,90]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>5|60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoomAudioName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹爆炸音效名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShootAudioName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射的声音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoot1</t>
+  </si>
+  <si>
+    <t>shoot1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoot2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trail13001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trail23001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaneFactory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtectTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>细菌生成后，在该时间段内不会受到伤害，会受到攻击，只是不会产生伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaneFactory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>missile12041</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoot1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.08|0|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.08|0.03|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|-0.5|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hehehe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备在发射时是否有发射动作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HasShootAnim</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>ZGame.Logic.BulletTwoFlashBall</t>
+  </si>
+  <si>
+    <t>ZGame.Logic.BulletTwoFlashBall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoot1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机枪X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>机枪N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>机枪T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>机枪QQ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaneFactory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun11011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun11021</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun11031</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun11041</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.095|0.076|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.104|-0.005|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.087|0.005|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.097|0.042|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.06|-0.072|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.089|-0.054|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.069|-0.135|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.039|-0.096|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.07|-0.11|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.041|-0.104|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZGame.Logic.BulletLaser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HasHitEffect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹击中怪物，子弹是否具有受击特效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitEffectName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹击中怪物后，要显示的特效名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>linklightinghit</t>
+  </si>
+  <si>
+    <t>bullet8hit</t>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestrictPos</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否限制坐标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniqueParams</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹自己的独特参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：对于鞭子子弹：[0]为一个鞭子最多串联的细菌数，该值要大于等于1；    [1]为鞭子搜索细菌限定夹角，该夹角为发射点的up方向和细菌之间的角度，范围(0,90]          2：对于雷射子弹：[0]为子弹的宽度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若限制了坐标，那么射出的子弹将不会移动，且在生命周期内，永远跟生产它的位置保持一致。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet9hit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoot1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZGame.Logic.BulletLaser2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹是否有消失的动作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有的话，需要先播放消失动作，然后才能销毁。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HasVanishAnim</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HasPrepareAnim</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹是否有准备动作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有的话需要先播放准备动作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSplit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否分裂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitGermId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分裂后的细菌ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadiusParams</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>细菌半径相关参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.795|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74|0.33</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]细菌比例为1时候的半径，[1]细菌缩放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpHitRatio</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量暴击率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]为最低暴击率，[1]为最高暴击率。最终血量为根据公式算出的血量乘以随机的暴击率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmoothDamp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否具有Damp跟随功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1812,7 +2250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1874,6 +2312,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2347,13 +2813,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -2375,15 +2841,18 @@
     <col min="17" max="17" width="39.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="3"/>
+    <col min="20" max="20" width="29.44140625" customWidth="1"/>
+    <col min="21" max="21" width="31.33203125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>89</v>
@@ -2401,7 +2870,7 @@
         <v>38</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>46</v>
@@ -2422,22 +2891,31 @@
         <v>76</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2475,28 +2953,37 @@
         <v>0</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>0</v>
       </c>
@@ -2534,28 +3021,37 @@
         <v>0</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -2575,8 +3071,11 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T4" s="26"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
@@ -2620,22 +3119,31 @@
         <v>78</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>55</v>
       </c>
@@ -2657,12 +3165,15 @@
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T6" s="26"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>10001</v>
       </c>
@@ -2700,28 +3211,35 @@
         <v>0</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N7" s="10">
         <v>10001</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>20001</v>
       </c>
@@ -2732,10 +3250,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="10">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E8" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
@@ -2759,25 +3277,32 @@
         <v>0</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N8" s="10">
         <v>20001</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>221</v>
+        <v>172</v>
+      </c>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2807,24 +3332,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="C1" s="16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>4</v>
@@ -2833,10 +3358,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2844,16 +3369,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2865,36 +3390,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2902,16 +3427,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2919,16 +3444,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2936,16 +3461,16 @@
         <v>100</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2964,7 +3489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F377421E-B907-459B-97D2-7B00629910A7}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2976,50 +3501,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3031,10 +3556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8026B52-CF55-48DC-8D86-B26C46E34A0E}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H17" sqref="A17:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3052,13 +3577,17 @@
     <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="36.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.44140625" customWidth="1"/>
+    <col min="21" max="21" width="35.88671875" customWidth="1"/>
+    <col min="22" max="22" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>29</v>
       </c>
@@ -3081,7 +3610,7 @@
         <v>38</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>46</v>
@@ -3102,22 +3631,31 @@
         <v>76</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -3155,28 +3693,37 @@
         <v>0</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>0</v>
       </c>
@@ -3214,28 +3761,37 @@
         <v>0</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3255,8 +3811,11 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="26"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
@@ -3300,22 +3859,31 @@
         <v>78</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>55</v>
       </c>
@@ -3337,12 +3905,15 @@
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="26"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>11001</v>
       </c>
@@ -3377,45 +3948,52 @@
         <v>1</v>
       </c>
       <c r="L7" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>125</v>
+        <v>246</v>
       </c>
       <c r="N7" s="10">
         <v>11001</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>133</v>
+        <v>282</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>21001</v>
+        <v>11011</v>
       </c>
       <c r="B8" s="10">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
       </c>
       <c r="D8" s="10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
@@ -3436,45 +4014,52 @@
         <v>1</v>
       </c>
       <c r="L8" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N8" s="10">
-        <v>21001</v>
+        <v>11011</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>137</v>
+        <v>278</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>148</v>
+        <v>283</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>95</v>
+        <v>292</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>123</v>
+        <v>295</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>21011</v>
+        <v>11021</v>
       </c>
       <c r="B9" s="10">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
       </c>
       <c r="D9" s="10">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="E9" s="10">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="10">
         <v>0</v>
@@ -3495,45 +4080,52 @@
         <v>1</v>
       </c>
       <c r="L9" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N9" s="10">
-        <v>21011</v>
+        <v>11021</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>140</v>
+        <v>279</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>149</v>
+        <v>284</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>123</v>
+        <v>294</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>21021</v>
+        <v>11031</v>
       </c>
       <c r="B10" s="10">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="C10" s="10">
         <v>2</v>
       </c>
       <c r="D10" s="10">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="E10" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="10">
         <v>0</v>
@@ -3554,45 +4146,52 @@
         <v>1</v>
       </c>
       <c r="L10" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="N10" s="10">
-        <v>21021</v>
+        <v>11031</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>141</v>
+        <v>280</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>150</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>123</v>
+        <v>296</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>21031</v>
+        <v>11041</v>
       </c>
       <c r="B11" s="10">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="C11" s="10">
         <v>2</v>
       </c>
       <c r="D11" s="10">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="E11" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="10">
         <v>0</v>
@@ -3613,45 +4212,52 @@
         <v>1</v>
       </c>
       <c r="L11" s="10">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N11" s="10">
-        <v>21031</v>
+        <v>11041</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>142</v>
+        <v>281</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>151</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>123</v>
+        <v>297</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>21041</v>
+        <v>21001</v>
       </c>
       <c r="B12" s="10">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C12" s="10">
         <v>2</v>
       </c>
       <c r="D12" s="10">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="E12" s="10">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="F12" s="10">
         <v>0</v>
@@ -3672,28 +4278,299 @@
         <v>1</v>
       </c>
       <c r="L12" s="10">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>154</v>
+        <v>277</v>
       </c>
       <c r="N12" s="10">
+        <v>21001</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>21011</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1012</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10">
+        <v>33</v>
+      </c>
+      <c r="K13" s="10">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10">
+        <v>2</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="10">
+        <v>21011</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>21021</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1013</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10">
+        <v>33</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10">
+        <v>3</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="10">
+        <v>21021</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="T14" s="12"/>
+      <c r="U14" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>21031</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1014</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <v>1</v>
+      </c>
+      <c r="J15" s="10">
+        <v>33</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1</v>
+      </c>
+      <c r="L15" s="10">
+        <v>4</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="10">
+        <v>21031</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="T15" s="12"/>
+      <c r="U15" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>21041</v>
       </c>
-      <c r="O12" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>183</v>
+      <c r="B16" s="10">
+        <v>1015</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10">
+        <v>33</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10">
+        <v>5</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="N16" s="10">
+        <v>21041</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="T16" s="12"/>
+      <c r="U16" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3712,10 +4589,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18CF833-C8E3-4FD3-833A-20A74CDB8951}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J14" sqref="A14:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3736,15 +4613,18 @@
     <col min="15" max="16" width="14.33203125" customWidth="1"/>
     <col min="17" max="17" width="38.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.44140625" customWidth="1"/>
+    <col min="21" max="21" width="32.5546875" customWidth="1"/>
+    <col min="22" max="22" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>89</v>
@@ -3762,7 +4642,7 @@
         <v>38</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>46</v>
@@ -3783,22 +4663,31 @@
         <v>76</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -3836,28 +4725,37 @@
         <v>0</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>0</v>
       </c>
@@ -3895,28 +4793,37 @@
         <v>0</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3936,8 +4843,11 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="26"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
@@ -3981,22 +4891,31 @@
         <v>78</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>55</v>
       </c>
@@ -4018,12 +4937,15 @@
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="26"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>12001</v>
       </c>
@@ -4034,7 +4956,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="10">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E7" s="10">
         <v>4</v>
@@ -4058,42 +4980,51 @@
         <v>1</v>
       </c>
       <c r="L7" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N7" s="10">
         <v>12001</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>22001</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>83</v>
+        <v>12041</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1032</v>
       </c>
       <c r="C8" s="10">
         <v>3</v>
       </c>
       <c r="D8" s="10">
-        <v>1.1000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E8" s="10">
         <v>5</v>
@@ -4117,45 +5048,54 @@
         <v>1</v>
       </c>
       <c r="L8" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="N8" s="10">
+        <v>12041</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="T8" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="U8" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>22001</v>
       </c>
-      <c r="O8" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>22011</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1022</v>
+      <c r="B9" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C9" s="10">
         <v>3</v>
       </c>
       <c r="D9" s="10">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E9" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="10">
         <v>0</v>
@@ -4176,45 +5116,54 @@
         <v>1</v>
       </c>
       <c r="L9" s="10">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N9" s="10">
+        <v>22001</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="T9" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="U9" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>22011</v>
       </c>
-      <c r="O9" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>22021</v>
-      </c>
       <c r="B10" s="10">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C10" s="10">
         <v>3</v>
       </c>
       <c r="D10" s="10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" s="10">
         <v>0</v>
@@ -4235,45 +5184,54 @@
         <v>1</v>
       </c>
       <c r="L10" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N10" s="10">
+        <v>22011</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="T10" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="U10" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>22021</v>
       </c>
-      <c r="O10" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>22031</v>
-      </c>
       <c r="B11" s="10">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C11" s="10">
         <v>3</v>
       </c>
       <c r="D11" s="10">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E11" s="10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F11" s="10">
         <v>0</v>
@@ -4294,36 +5252,45 @@
         <v>1</v>
       </c>
       <c r="L11" s="10">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N11" s="10">
+        <v>22021</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="T11" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="U11" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>22031</v>
       </c>
-      <c r="O11" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>22041</v>
-      </c>
       <c r="B12" s="10">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C12" s="10">
         <v>3</v>
@@ -4356,25 +5323,102 @@
         <v>32</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N12" s="10">
+        <v>22031</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="T12" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="U12" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>22041</v>
       </c>
-      <c r="O12" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>181</v>
+      <c r="B13" s="10">
+        <v>1025</v>
+      </c>
+      <c r="C13" s="10">
+        <v>3</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="10">
+        <v>12</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10">
+        <v>49</v>
+      </c>
+      <c r="K13" s="10">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10">
+        <v>6</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="10">
+        <v>22041</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="T13" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="U13" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4387,10 +5431,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1034E8-97B7-4AE6-85D3-98B9692FAA0B}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E9" sqref="A9:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4412,14 +5456,17 @@
     <col min="18" max="18" width="38.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.44140625" customWidth="1"/>
+    <col min="22" max="22" width="13.88671875" customWidth="1"/>
+    <col min="23" max="23" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>89</v>
@@ -4437,7 +5484,7 @@
         <v>38</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>44</v>
@@ -4461,22 +5508,31 @@
         <v>76</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -4517,28 +5573,37 @@
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>0</v>
       </c>
@@ -4579,28 +5644,37 @@
         <v>0</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="V3" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -4621,8 +5695,11 @@
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" s="26"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
@@ -4669,22 +5746,31 @@
         <v>78</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="U5" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>55</v>
       </c>
@@ -4707,14 +5793,17 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" s="26"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>4001</v>
+        <v>13001</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>84</v>
@@ -4750,27 +5839,34 @@
         <v>1</v>
       </c>
       <c r="M7" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="P7" s="10"/>
+        <v>120</v>
+      </c>
+      <c r="O7" s="10">
+        <v>13001</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="Q7" s="10" t="s">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="26"/>
+      <c r="V7" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="W7" s="10"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>4011</v>
+        <v>23001</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>85</v>
@@ -4806,23 +5902,30 @@
         <v>1</v>
       </c>
       <c r="M8" s="10">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" s="10"/>
+        <v>120</v>
+      </c>
+      <c r="O8" s="10">
+        <v>23001</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>245</v>
+      </c>
       <c r="Q8" s="10" t="s">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="W8" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4839,10 +5942,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4867,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -4876,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C3" s="19"/>
     </row>
@@ -4901,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4997,175 +6100,215 @@
         <v>1015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>58</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>59</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>86</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>87</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
-        <v>2000</v>
+        <v>1025</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
-        <v>2001</v>
+        <v>1026</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
-        <v>2002</v>
+        <v>1030</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
-        <v>2003</v>
+        <v>1031</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
-        <v>2004</v>
+        <v>1032</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>105</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
-        <v>3002</v>
+        <v>2002</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
-        <v>3003</v>
-      </c>
-      <c r="B37" t="s">
-        <v>167</v>
+        <v>2003</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
-        <v>3004</v>
-      </c>
-      <c r="B38" t="s">
-        <v>168</v>
+        <v>2004</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
-        <v>3005</v>
+        <v>3000</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
+        <v>3001</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>3002</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>3003</v>
+      </c>
+      <c r="B42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>3004</v>
+      </c>
+      <c r="B43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>3005</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
         <v>3006</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>247</v>
+      <c r="B45" s="9" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5183,7 +6326,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5213,7 +6356,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>12</v>
@@ -5221,7 +6364,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5260,7 +6403,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -5272,7 +6415,7 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -5349,7 +6492,7 @@
         <v>64</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>65</v>
@@ -5357,13 +6500,13 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="B17">
         <v>0.27</v>
       </c>
       <c r="C17" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5378,10 +6521,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8232EF6F-E003-41C5-BAF0-3BEF584E0537}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5389,143 +6532,246 @@
     <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="C1" s="16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>32</v>
+        <v>346</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>348</v>
       </c>
       <c r="E3" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="10"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>176</v>
+        <v>349</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="33" t="s">
+        <v>353</v>
+      </c>
       <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.79500000000000004</v>
+        <v>160</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>350</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.74</v>
+        <v>161</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="E8" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>100</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.74</v>
+        <v>160</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="E9" s="10">
+        <v>2</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="I9" s="14">
         <v>2</v>
       </c>
     </row>
@@ -5542,7 +6788,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5572,7 +6818,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>12</v>
@@ -5580,10 +6826,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -5601,10 +6847,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -5613,10 +6859,10 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -5625,7 +6871,7 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -5637,7 +6883,7 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -5645,10 +6891,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
@@ -5656,10 +6902,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
@@ -5677,10 +6923,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B249AD-CC02-4CA9-8D85-7492A456795D}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5691,46 +6937,69 @@
     <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.109375" customWidth="1"/>
     <col min="8" max="8" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.77734375" customWidth="1"/>
+    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="25.77734375" customWidth="1"/>
+    <col min="13" max="14" width="28.109375" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -5739,24 +7008,42 @@
         <v>32</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -5780,10 +7067,28 @@
         <v>0</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -5793,66 +7098,102 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="F5" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>232</v>
-      </c>
       <c r="G5" s="13" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>233</v>
-      </c>
       <c r="G6" s="22" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B7" s="10">
         <v>10</v>
@@ -5876,12 +7217,28 @@
         <v>0</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="N7" s="27"/>
+      <c r="O7" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B8" s="10">
         <v>10</v>
@@ -5905,12 +7262,28 @@
         <v>0</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="N8" s="27"/>
+      <c r="O8" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B9" s="10">
         <v>8</v>
@@ -5919,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="10">
-        <v>3</v>
+        <v>2.282</v>
       </c>
       <c r="E9" s="14">
         <v>0</v>
@@ -5934,12 +7307,28 @@
         <v>0</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="N9" s="27"/>
+      <c r="O9" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B10" s="10">
         <v>8</v>
@@ -5963,12 +7352,28 @@
         <v>0</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="N10" s="27"/>
+      <c r="O10" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B11" s="10">
         <v>8</v>
@@ -5992,12 +7397,28 @@
         <v>0</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="N11" s="27"/>
+      <c r="O11" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B12" s="10">
         <v>10</v>
@@ -6021,12 +7442,28 @@
         <v>0</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="N12" s="27"/>
+      <c r="O12" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="B13" s="13">
         <v>10</v>
@@ -6050,12 +7487,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="N13" s="27"/>
+      <c r="O13" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="B14" s="13">
         <v>3</v>
@@ -6079,11 +7532,165 @@
         <v>0.2</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="9"/>
+        <v>234</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="N14" s="27"/>
+      <c r="O14" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="14">
+        <v>2</v>
+      </c>
+      <c r="C15" s="14">
+        <v>2</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14">
+        <v>2</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I16" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
+        <v>2</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14">
+        <v>2</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>323</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/ExcelTool/bin/table/demo.xlsx
+++ b/ExcelTool/bin/table/demo.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E4C7B1-519D-436A-AD9B-BFC541D08010}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFF5B0A-948F-4BAD-97DC-BE10E6D7815C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="747" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="747" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BodySetting" sheetId="1" r:id="rId1"/>
     <sheet name="SecondaryGunSetting" sheetId="5" r:id="rId2"/>
     <sheet name="MissileSetting" sheetId="6" r:id="rId3"/>
-    <sheet name="TrailSetting" sheetId="7" r:id="rId4"/>
-    <sheet name="LanguageSetting" sheetId="3" r:id="rId5"/>
-    <sheet name="GameSetting" sheetId="2" r:id="rId6"/>
-    <sheet name="GermSetting" sheetId="10" r:id="rId7"/>
-    <sheet name="IconSetting" sheetId="9" r:id="rId8"/>
-    <sheet name="BulletSetting" sheetId="13" r:id="rId9"/>
-    <sheet name="Test" sheetId="12" r:id="rId10"/>
-    <sheet name="说明Describle" sheetId="11" r:id="rId11"/>
+    <sheet name="EffectSetting" sheetId="14" r:id="rId4"/>
+    <sheet name="TrailSetting" sheetId="7" r:id="rId5"/>
+    <sheet name="LanguageSetting" sheetId="3" r:id="rId6"/>
+    <sheet name="GameSetting" sheetId="2" r:id="rId7"/>
+    <sheet name="GermSetting" sheetId="10" r:id="rId8"/>
+    <sheet name="IconSetting" sheetId="9" r:id="rId9"/>
+    <sheet name="BulletSetting" sheetId="13" r:id="rId10"/>
+    <sheet name="Test测试" sheetId="12" r:id="rId11"/>
+    <sheet name="说明Describle" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -597,7 +598,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="382">
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2046,6 +2047,68 @@
   <si>
     <t>true</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab3D</t>
+  </si>
+  <si>
+    <t>Prefab3D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_shuibowen_daiji_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_shuibowen_shuihua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_shuibowen_qigan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_yinyingyu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放时长</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0表示循环播放，&gt;0则需要自动移除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_futoubolang</t>
   </si>
 </sst>
 </file>
@@ -2250,7 +2313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2341,6 +2404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2822,32 +2886,32 @@
       <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="19.88671875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="39.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.44140625" customWidth="1"/>
-    <col min="21" max="21" width="31.33203125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="19.875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="39.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.5" customWidth="1"/>
+    <col min="21" max="21" width="31.375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="19.5" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>91</v>
       </c>
@@ -2915,7 +2979,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2983,7 +3047,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>0</v>
       </c>
@@ -3051,7 +3115,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3075,7 +3139,7 @@
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
@@ -3143,7 +3207,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>55</v>
       </c>
@@ -3173,7 +3237,7 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>10001</v>
       </c>
@@ -3239,7 +3303,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>20001</v>
       </c>
@@ -3314,23 +3378,813 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B249AD-CC02-4CA9-8D85-7492A456795D}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.125" customWidth="1"/>
+    <col min="8" max="8" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39" customWidth="1"/>
+    <col min="11" max="11" width="25.375" customWidth="1"/>
+    <col min="12" max="12" width="25.75" customWidth="1"/>
+    <col min="13" max="14" width="28.125" customWidth="1"/>
+    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="103.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="10">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="N7" s="27"/>
+      <c r="O7" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="10">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="N8" s="27"/>
+      <c r="O8" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="10">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2.282</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="N9" s="27"/>
+      <c r="O9" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="N10" s="27"/>
+      <c r="O10" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="10">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="N11" s="27"/>
+      <c r="O11" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="10">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="N12" s="27"/>
+      <c r="O12" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>9</v>
+      </c>
+      <c r="G13" s="14">
+        <v>5</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="N13" s="27"/>
+      <c r="O13" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="13">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>9</v>
+      </c>
+      <c r="G14" s="14">
+        <v>8</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="N14" s="27"/>
+      <c r="O14" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="14">
+        <v>2</v>
+      </c>
+      <c r="C15" s="14">
+        <v>2</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14">
+        <v>2</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I16" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
+        <v>2</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14">
+        <v>2</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="C4:C6">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B6">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B2">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D2">
+    <cfRule type="duplicateValues" dxfId="2" priority="43"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CFF3D8-2A70-4590-A4A3-4A4431F09686}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>91</v>
       </c>
@@ -3347,7 +4201,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>178</v>
       </c>
@@ -3364,7 +4218,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>0</v>
       </c>
@@ -3381,14 +4235,14 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>212</v>
       </c>
@@ -3405,7 +4259,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>91</v>
       </c>
@@ -3422,7 +4276,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -3439,7 +4293,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>2</v>
       </c>
@@ -3456,7 +4310,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>100</v>
       </c>
@@ -3482,10 +4336,11 @@
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F377421E-B907-459B-97D2-7B00629910A7}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -3493,13 +4348,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.88671875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>177</v>
       </c>
@@ -3507,42 +4362,42 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
         <v>186</v>
       </c>
@@ -3562,32 +4417,32 @@
       <selection activeCell="H17" sqref="A17:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.44140625" customWidth="1"/>
-    <col min="21" max="21" width="35.88671875" customWidth="1"/>
-    <col min="22" max="22" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.5" customWidth="1"/>
+    <col min="21" max="21" width="35.875" customWidth="1"/>
+    <col min="22" max="22" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>29</v>
       </c>
@@ -3655,7 +4510,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -3723,7 +4578,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>0</v>
       </c>
@@ -3791,7 +4646,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3815,7 +4670,7 @@
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
@@ -3883,7 +4738,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>55</v>
       </c>
@@ -3913,7 +4768,7 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>11001</v>
       </c>
@@ -3979,7 +4834,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>11011</v>
       </c>
@@ -4045,7 +4900,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>11021</v>
       </c>
@@ -4111,7 +4966,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>11031</v>
       </c>
@@ -4177,7 +5032,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>11041</v>
       </c>
@@ -4243,7 +5098,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>21001</v>
       </c>
@@ -4309,7 +5164,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>21011</v>
       </c>
@@ -4375,7 +5230,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>21021</v>
       </c>
@@ -4441,7 +5296,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>21031</v>
       </c>
@@ -4507,7 +5362,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>21041</v>
       </c>
@@ -4591,35 +5446,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18CF833-C8E3-4FD3-833A-20A74CDB8951}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J14" sqref="A14:XFD37"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.44140625" customWidth="1"/>
-    <col min="21" max="21" width="32.5546875" customWidth="1"/>
-    <col min="22" max="22" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.5" customWidth="1"/>
+    <col min="21" max="21" width="32.5" customWidth="1"/>
+    <col min="22" max="22" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>91</v>
       </c>
@@ -4687,7 +5542,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -4755,7 +5610,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>0</v>
       </c>
@@ -4823,7 +5678,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -4847,7 +5702,7 @@
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
@@ -4915,7 +5770,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>55</v>
       </c>
@@ -4945,7 +5800,7 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>12001</v>
       </c>
@@ -5013,7 +5868,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>12041</v>
       </c>
@@ -5081,7 +5936,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>22001</v>
       </c>
@@ -5149,7 +6004,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>22011</v>
       </c>
@@ -5217,7 +6072,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>22021</v>
       </c>
@@ -5285,7 +6140,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>22031</v>
       </c>
@@ -5353,7 +6208,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>22041</v>
       </c>
@@ -5430,38 +6285,201 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83634609-18A8-4690-864C-EB24D452C42C}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="46.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>3</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="14">
+        <v>5</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D11" s="34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1034E8-97B7-4AE6-85D3-98B9692FAA0B}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E9" sqref="A9:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.33203125" customWidth="1"/>
-    <col min="18" max="18" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.44140625" customWidth="1"/>
-    <col min="22" max="22" width="13.88671875" customWidth="1"/>
-    <col min="23" max="23" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.375" customWidth="1"/>
+    <col min="18" max="18" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.5" customWidth="1"/>
+    <col min="22" max="22" width="13.875" customWidth="1"/>
+    <col min="23" max="23" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -5532,7 +6550,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -5603,7 +6621,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>0</v>
       </c>
@@ -5674,7 +6692,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -5699,7 +6717,7 @@
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
@@ -5770,7 +6788,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>55</v>
       </c>
@@ -5801,7 +6819,7 @@
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>13001</v>
       </c>
@@ -5864,7 +6882,7 @@
       </c>
       <c r="W7" s="10"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>23001</v>
       </c>
@@ -5940,7 +6958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
@@ -5948,13 +6966,13 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -5965,7 +6983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5974,7 +6992,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="19">
         <v>0</v>
       </c>
@@ -5983,11 +7001,11 @@
       </c>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -5995,11 +7013,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -6007,7 +7025,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>100</v>
       </c>
@@ -6015,7 +7033,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>101</v>
       </c>
@@ -6023,7 +7041,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>102</v>
       </c>
@@ -6031,7 +7049,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>103</v>
       </c>
@@ -6039,7 +7057,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>104</v>
       </c>
@@ -6047,7 +7065,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>105</v>
       </c>
@@ -6055,7 +7073,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>1010</v>
       </c>
@@ -6063,7 +7081,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>1011</v>
       </c>
@@ -6071,7 +7089,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>1012</v>
       </c>
@@ -6079,7 +7097,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>1013</v>
       </c>
@@ -6087,7 +7105,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>1014</v>
       </c>
@@ -6095,7 +7113,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>1015</v>
       </c>
@@ -6103,7 +7121,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>1016</v>
       </c>
@@ -6111,7 +7129,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>1017</v>
       </c>
@@ -6119,7 +7137,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>1018</v>
       </c>
@@ -6127,7 +7145,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>1019</v>
       </c>
@@ -6135,7 +7153,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>1020</v>
       </c>
@@ -6143,7 +7161,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>1021</v>
       </c>
@@ -6151,7 +7169,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>1022</v>
       </c>
@@ -6159,7 +7177,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>1023</v>
       </c>
@@ -6167,7 +7185,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>1024</v>
       </c>
@@ -6175,7 +7193,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>1025</v>
       </c>
@@ -6183,7 +7201,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>1026</v>
       </c>
@@ -6191,7 +7209,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>1030</v>
       </c>
@@ -6199,7 +7217,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>1031</v>
       </c>
@@ -6207,7 +7225,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>1032</v>
       </c>
@@ -6215,7 +7233,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>2000</v>
       </c>
@@ -6223,7 +7241,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>2001</v>
       </c>
@@ -6231,7 +7249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>2002</v>
       </c>
@@ -6239,7 +7257,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>2003</v>
       </c>
@@ -6247,7 +7265,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>2004</v>
       </c>
@@ -6255,7 +7273,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>3000</v>
       </c>
@@ -6263,7 +7281,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>3001</v>
       </c>
@@ -6271,7 +7289,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>3002</v>
       </c>
@@ -6279,7 +7297,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
         <v>3003</v>
       </c>
@@ -6287,7 +7305,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
         <v>3004</v>
       </c>
@@ -6295,7 +7313,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="9">
         <v>3005</v>
       </c>
@@ -6303,7 +7321,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="9">
         <v>3006</v>
       </c>
@@ -6321,7 +7339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -6329,15 +7347,15 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="76.21875" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="76.25" customWidth="1"/>
+    <col min="4" max="4" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -6351,7 +7369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -6362,7 +7380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -6371,7 +7389,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -6380,13 +7398,13 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -6398,7 +7416,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -6410,7 +7428,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -6421,7 +7439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -6432,7 +7450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -6443,7 +7461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -6454,7 +7472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -6465,7 +7483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -6476,7 +7494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -6487,7 +7505,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -6498,7 +7516,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>220</v>
       </c>
@@ -6519,7 +7537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8232EF6F-E003-41C5-BAF0-3BEF584E0537}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -6527,20 +7545,20 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>91</v>
       </c>
@@ -6569,7 +7587,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -6598,7 +7616,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>0</v>
       </c>
@@ -6627,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -6638,7 +7656,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>162</v>
       </c>
@@ -6667,7 +7685,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="77.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>163</v>
       </c>
@@ -6688,7 +7706,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -6717,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>2</v>
       </c>
@@ -6746,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>100</v>
       </c>
@@ -6783,7 +7801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16613BD9-1BB8-4B3A-9C31-59A58E5C044A}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -6791,15 +7809,15 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="107.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="107.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -6813,7 +7831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -6824,7 +7842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -6833,7 +7851,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -6842,10 +7860,10 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -6854,7 +7872,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -6866,7 +7884,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -6878,7 +7896,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -6889,7 +7907,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -6900,7 +7918,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -6919,794 +7937,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B249AD-CC02-4CA9-8D85-7492A456795D}">
-  <dimension ref="A1:O17"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.109375" customWidth="1"/>
-    <col min="8" max="8" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="12" width="25.77734375" customWidth="1"/>
-    <col min="13" max="14" width="28.109375" customWidth="1"/>
-    <col min="15" max="15" width="16.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-    </row>
-    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="N5" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="12"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="10">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="10">
-        <v>10</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="10">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10">
-        <v>2.282</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="10">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="N10" s="27"/>
-      <c r="O10" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="10">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="N11" s="27"/>
-      <c r="O11" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="10">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="13">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14">
-        <v>9</v>
-      </c>
-      <c r="G13" s="14">
-        <v>5</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B14" s="13">
-        <v>3</v>
-      </c>
-      <c r="C14" s="10">
-        <v>2</v>
-      </c>
-      <c r="D14" s="14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="14">
-        <v>9</v>
-      </c>
-      <c r="G14" s="14">
-        <v>8</v>
-      </c>
-      <c r="H14" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="N14" s="27"/>
-      <c r="O14" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="B15" s="14">
-        <v>2</v>
-      </c>
-      <c r="C15" s="14">
-        <v>2</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="K15" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="M15" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="N15" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="B16" s="14">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14">
-        <v>2</v>
-      </c>
-      <c r="D16" s="14">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14">
-        <v>1</v>
-      </c>
-      <c r="F16" s="14">
-        <v>2</v>
-      </c>
-      <c r="G16" s="14">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="I16" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="K16" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="M16" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="N16" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="B17" s="14">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14">
-        <v>2</v>
-      </c>
-      <c r="D17" s="14">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14">
-        <v>2</v>
-      </c>
-      <c r="G17" s="14">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="I17" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="K17" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="L17" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="M17" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="N17" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="O17" s="23" t="s">
-        <v>323</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C4:C6">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B6">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2">
-    <cfRule type="duplicateValues" dxfId="2" priority="43"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/ExcelTool/bin/table/demo.xlsx
+++ b/ExcelTool/bin/table/demo.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFF5B0A-948F-4BAD-97DC-BE10E6D7815C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF5BBD9-C3DB-4FA5-BB35-6B27C1F33BF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="747" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1245" windowWidth="31980" windowHeight="14220" tabRatio="747" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BodySetting" sheetId="1" r:id="rId1"/>
-    <sheet name="SecondaryGunSetting" sheetId="5" r:id="rId2"/>
-    <sheet name="MissileSetting" sheetId="6" r:id="rId3"/>
-    <sheet name="EffectSetting" sheetId="14" r:id="rId4"/>
-    <sheet name="TrailSetting" sheetId="7" r:id="rId5"/>
-    <sheet name="LanguageSetting" sheetId="3" r:id="rId6"/>
-    <sheet name="GameSetting" sheetId="2" r:id="rId7"/>
-    <sheet name="GermSetting" sheetId="10" r:id="rId8"/>
-    <sheet name="IconSetting" sheetId="9" r:id="rId9"/>
-    <sheet name="BulletSetting" sheetId="13" r:id="rId10"/>
+    <sheet name="t_body" sheetId="1" r:id="rId1"/>
+    <sheet name="t_secondaryGun" sheetId="5" r:id="rId2"/>
+    <sheet name="t_missile" sheetId="6" r:id="rId3"/>
+    <sheet name="t_effects" sheetId="14" r:id="rId4"/>
+    <sheet name="t_trail" sheetId="7" r:id="rId5"/>
+    <sheet name="t_language" sheetId="3" r:id="rId6"/>
+    <sheet name="t_game" sheetId="2" r:id="rId7"/>
+    <sheet name="t_germ" sheetId="10" r:id="rId8"/>
+    <sheet name="t_icon" sheetId="9" r:id="rId9"/>
+    <sheet name="t_bullet" sheetId="13" r:id="rId10"/>
     <sheet name="Test测试" sheetId="12" r:id="rId11"/>
     <sheet name="说明Describle" sheetId="11" r:id="rId12"/>
   </sheets>
@@ -598,7 +598,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="384">
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -620,15 +620,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>语言表id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体内容</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -995,10 +987,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>lv:{0}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>伤害:{0}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1820,10 +1808,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>子弹击中怪物后，要显示的特效名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2109,6 +2093,30 @@
   </si>
   <si>
     <t>effect_futoubolang</t>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2313,7 +2321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2405,12 +2413,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -2883,7 +2906,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2913,70 +2936,70 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="M1" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2990,19 +3013,19 @@
         <v>0</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>0</v>
@@ -3017,34 +3040,34 @@
         <v>0</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.3">
@@ -3085,34 +3108,34 @@
         <v>0</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="T3" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="U3" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -3141,78 +3164,78 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="H5" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="M5" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T5" s="26" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -3229,7 +3252,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
@@ -3242,7 +3265,7 @@
         <v>10001</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
@@ -3275,32 +3298,32 @@
         <v>0</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N7" s="10">
         <v>10001</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="T7" s="26"/>
       <c r="U7" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -3308,7 +3331,7 @@
         <v>20001</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -3341,32 +3364,32 @@
         <v>0</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N8" s="10">
         <v>20001</v>
       </c>
       <c r="O8" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="P8" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="P8" s="10" t="s">
-        <v>133</v>
-      </c>
       <c r="Q8" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="T8" s="26"/>
       <c r="U8" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3381,8 +3404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B249AD-CC02-4CA9-8D85-7492A456795D}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3405,101 +3428,101 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B3" s="10">
         <v>1</v>
@@ -3523,26 +3546,22 @@
         <v>0</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>236</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N3" s="27"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
@@ -3563,85 +3582,85 @@
     </row>
     <row r="5" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>198</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M5" s="28" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="103.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
@@ -3649,7 +3668,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B7" s="10">
         <v>10</v>
@@ -3673,28 +3692,28 @@
         <v>0</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="23" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B8" s="10">
         <v>10</v>
@@ -3718,28 +3737,28 @@
         <v>0</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B9" s="10">
         <v>8</v>
@@ -3763,28 +3782,28 @@
         <v>0</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B10" s="10">
         <v>8</v>
@@ -3808,28 +3827,28 @@
         <v>0</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B11" s="10">
         <v>8</v>
@@ -3853,28 +3872,28 @@
         <v>0</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N11" s="27"/>
       <c r="O11" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B12" s="10">
         <v>10</v>
@@ -3898,28 +3917,28 @@
         <v>0</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N12" s="27"/>
       <c r="O12" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B13" s="13">
         <v>10</v>
@@ -3943,28 +3962,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N13" s="27"/>
       <c r="O13" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B14" s="13">
         <v>3</v>
@@ -3988,28 +4007,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N14" s="27"/>
       <c r="O14" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B15" s="14">
         <v>2</v>
@@ -4033,30 +4052,30 @@
         <v>0.2</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N15" s="29" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B16" s="14">
         <v>0</v>
@@ -4083,27 +4102,27 @@
         <v>0.2</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N16" s="29" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B17" s="14">
         <v>0</v>
@@ -4130,22 +4149,22 @@
         <v>0.25</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N17" s="29" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4172,7 +4191,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4186,24 +4205,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>4</v>
@@ -4212,10 +4231,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4223,16 +4242,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -4244,36 +4263,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -4281,16 +4300,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>191</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -4298,16 +4317,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>191</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -4315,16 +4334,16 @@
         <v>100</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4342,10 +4361,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F377421E-B907-459B-97D2-7B00629910A7}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4356,50 +4375,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="20" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +4437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8026B52-CF55-48DC-8D86-B26C46E34A0E}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="A17:XFD27"/>
     </sheetView>
   </sheetViews>
@@ -4444,70 +4468,70 @@
   <sheetData>
     <row r="1" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="M1" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
@@ -4521,19 +4545,19 @@
         <v>0</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>0</v>
@@ -4548,34 +4572,34 @@
         <v>0</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
@@ -4616,34 +4640,34 @@
         <v>0</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="T3" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="U3" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
@@ -4672,78 +4696,78 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="H5" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="M5" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T5" s="26" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -4760,7 +4784,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
@@ -4806,32 +4830,32 @@
         <v>1</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N7" s="10">
         <v>11001</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T7" s="26"/>
       <c r="U7" s="26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -4872,32 +4896,32 @@
         <v>2</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N8" s="10">
         <v>11011</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q8" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="R8" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="R8" s="10" t="s">
-        <v>295</v>
-      </c>
       <c r="S8" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="T8" s="26"/>
       <c r="U8" s="26" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
@@ -4938,32 +4962,32 @@
         <v>3</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N9" s="10">
         <v>11021</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="T9" s="26"/>
       <c r="U9" s="26" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
@@ -5004,32 +5028,32 @@
         <v>4</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N10" s="10">
         <v>11031</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="T10" s="26"/>
       <c r="U10" s="26" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
@@ -5070,32 +5094,32 @@
         <v>5</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N11" s="10">
         <v>11041</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="T11" s="26"/>
       <c r="U11" s="26" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
@@ -5136,32 +5160,32 @@
         <v>1</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N12" s="10">
         <v>21001</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="T12" s="26"/>
       <c r="U12" s="26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
@@ -5202,32 +5226,32 @@
         <v>2</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N13" s="10">
         <v>21011</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="T13" s="26"/>
       <c r="U13" s="26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
@@ -5268,32 +5292,32 @@
         <v>3</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N14" s="10">
         <v>21021</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="T14" s="12"/>
       <c r="U14" s="26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
@@ -5334,32 +5358,32 @@
         <v>4</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N15" s="10">
         <v>21031</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="T15" s="12"/>
       <c r="U15" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
@@ -5400,41 +5424,41 @@
         <v>5</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N16" s="10">
         <v>21041</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="T16" s="12"/>
       <c r="U16" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5476,70 +5500,70 @@
   <sheetData>
     <row r="1" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="M1" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
@@ -5553,19 +5577,19 @@
         <v>0</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>0</v>
@@ -5580,34 +5604,34 @@
         <v>0</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
@@ -5648,34 +5672,34 @@
         <v>0</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="T3" s="26" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="U3" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
@@ -5704,78 +5728,78 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="H5" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="M5" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T5" s="26" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -5792,7 +5816,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
@@ -5805,7 +5829,7 @@
         <v>12001</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="10">
         <v>3</v>
@@ -5838,34 +5862,34 @@
         <v>5</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N7" s="10">
         <v>12001</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="T7" s="26" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="U7" s="26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -5906,34 +5930,34 @@
         <v>6</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N8" s="10">
         <v>12041</v>
       </c>
       <c r="O8" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="P8" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="P8" s="25" t="s">
-        <v>255</v>
-      </c>
       <c r="Q8" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U8" s="26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
@@ -5941,7 +5965,7 @@
         <v>22001</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="10">
         <v>3</v>
@@ -5974,34 +5998,34 @@
         <v>5</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N9" s="10">
         <v>22001</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="U9" s="26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="V9" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
@@ -6042,34 +6066,34 @@
         <v>21</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N10" s="10">
         <v>22011</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="U10" s="26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="V10" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
@@ -6110,34 +6134,34 @@
         <v>22</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N11" s="10">
         <v>22021</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P11" s="25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="T11" s="26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U11" s="26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
@@ -6178,34 +6202,34 @@
         <v>32</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N12" s="10">
         <v>22031</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P12" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="T12" s="26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U12" s="26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="V12" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
@@ -6246,34 +6270,34 @@
         <v>6</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N13" s="10">
         <v>22041</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P13" s="25" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T13" s="26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U13" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="V13" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -6288,7 +6312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83634609-18A8-4690-864C-EB24D452C42C}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -6302,16 +6326,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -6319,13 +6343,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -6333,10 +6357,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D3" s="12">
         <v>0</v>
@@ -6350,16 +6374,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -6367,7 +6391,7 @@
       <c r="B6" s="10"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -6375,10 +6399,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D7" s="12">
         <v>0</v>
@@ -6389,10 +6413,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D8" s="12">
         <v>1</v>
@@ -6403,10 +6427,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D9" s="12">
         <v>2.2000000000000002</v>
@@ -6417,10 +6441,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -6431,10 +6455,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D11" s="34">
         <v>0</v>
@@ -6451,7 +6475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1034E8-97B7-4AE6-85D3-98B9692FAA0B}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="A9:XFD24"/>
     </sheetView>
   </sheetViews>
@@ -6481,73 +6505,73 @@
   <sheetData>
     <row r="1" spans="1:23" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="K1" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="N1" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
@@ -6561,19 +6585,19 @@
         <v>0</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>0</v>
@@ -6591,34 +6615,34 @@
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
@@ -6662,34 +6686,34 @@
         <v>0</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="U3" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
@@ -6719,81 +6743,81 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="H5" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="N5" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U5" s="26" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -6811,7 +6835,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
@@ -6824,7 +6848,7 @@
         <v>13001</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="10">
         <v>4</v>
@@ -6860,25 +6884,25 @@
         <v>3</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O7" s="10">
         <v>13001</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="26"/>
       <c r="V7" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="W7" s="10"/>
     </row>
@@ -6887,7 +6911,7 @@
         <v>23001</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="10">
         <v>4</v>
@@ -6923,35 +6947,35 @@
         <v>4</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O8" s="10">
         <v>23001</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="26"/>
       <c r="V8" s="26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="W8" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6960,382 +6984,433 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="38.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="4" max="4" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>3</v>
+        <v>379</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="19">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>174</v>
-      </c>
+      <c r="B3" s="19"/>
       <c r="C3" s="19"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>100</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>101</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>102</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>103</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>104</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>105</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>1010</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>1011</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>1012</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>1013</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>1014</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>1015</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>1016</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>1017</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>1018</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>1019</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>1020</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>1021</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>1022</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>1023</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>1024</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>1025</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>1026</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>1030</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>1031</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>1032</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>2000</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>2001</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>2002</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>2003</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>2004</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>3000</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>3001</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>3002</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="9"/>
+      <c r="D41" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
         <v>3003</v>
       </c>
-      <c r="B42" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="9"/>
+      <c r="D42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
         <v>3004</v>
       </c>
-      <c r="B43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="9"/>
+      <c r="D43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="9">
         <v>3005</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="9">
         <v>3006</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>230</v>
+      <c r="B45" s="9"/>
+      <c r="D45" s="9" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A2:C3">
+  <conditionalFormatting sqref="A2:C3 D2">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7363,10 +7438,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -7374,15 +7449,15 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7391,10 +7466,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -7406,125 +7481,125 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>4000</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>800</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>9999</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15">
         <v>9999</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B17">
         <v>0.27</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7542,7 +7617,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7560,31 +7635,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -7592,28 +7667,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -7621,25 +7696,25 @@
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E3" s="10">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I3" s="14">
         <v>0</v>
@@ -7658,52 +7733,52 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>165</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="77.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="33" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="33" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -7711,25 +7786,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I7" s="14">
         <v>0</v>
@@ -7740,25 +7815,25 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E8" s="10">
         <v>2</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I8" s="14">
         <v>0</v>
@@ -7769,25 +7844,25 @@
         <v>100</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E9" s="10">
         <v>2</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I9" s="14">
         <v>2</v>
@@ -7825,10 +7900,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -7836,27 +7911,27 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -7865,68 +7940,68 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -7935,6 +8010,6 @@
     <hyperlink ref="A1" r:id="rId1" display="Key@" xr:uid="{6323F88F-B53A-4797-A10F-F900AC9F54E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>